--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\moneykeeps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B757DA-772F-42EB-A2FF-6F0A646C52AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E22C1-EC33-4D90-B46C-BEA77AA2A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="72" windowWidth="14124" windowHeight="7632" xr2:uid="{AE566CAF-038B-44CA-84C2-E6EC14FB686B}"/>
+    <workbookView xWindow="-120" yWindow="4872" windowWidth="14124" windowHeight="7632" xr2:uid="{AE566CAF-038B-44CA-84C2-E6EC14FB686B}"/>
   </bookViews>
   <sheets>
     <sheet name="写真" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>テーブル名（名称）</t>
     <rPh sb="4" eb="5">
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>MEMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,6 +543,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,9 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -888,7 +892,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -899,46 +903,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
@@ -1099,7 +1103,9 @@
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="12"/>
       <c r="I8" s="5"/>
@@ -1125,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12"/>
@@ -1168,7 +1174,7 @@
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1180,7 +1186,9 @@
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1477,44 +1485,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
